--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Element
+    <t xml:space="preserve">
 </t>
   </si>
   <si>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T06:40:38+00:00</t>
+    <t>2025-07-21T11:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -244,7 +244,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>Specialite.specialite</t>
+    <t>Specialite.typeSavoirFaire</t>
   </si>
   <si>
     <t>1</t>
@@ -254,10 +254,44 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R04-TypeSavoirFaire?vs</t>
+  </si>
+  <si>
+    <t>SavoirFaire.typeSavoirFaire</t>
+  </si>
+  <si>
+    <t>Specialite.dateReconnaissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.dateReconnaissance</t>
+  </si>
+  <si>
+    <t>Specialite.dateAbandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.dateAbandon</t>
+  </si>
+  <si>
+    <t>Specialite.specialite</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Spécialité ordinale.</t>
-  </si>
-  <si>
-    <t>preferred</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/specialite-vs</t>
@@ -563,7 +597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -572,8 +606,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.58203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -597,13 +631,13 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.9296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.91015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="16.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="26.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -902,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>71</v>
@@ -914,6 +948,304 @@
         <v>70</v>
       </c>
       <c r="AJ3" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Spécialité médicale ou odontologique, reconnue par une autorité d'enregistrement (Ordre ou SSA), soit sur la base d'un diplôme de spécialité (DES ou DESC de groupe II, CES jusqu'en 1991), soit via une commission de qualification.En France, l'exercice d'une spécialité est exclusif, c'est-à-dire qu'on ne peut exercer qu'une seule spécialité, celle qui fait l'objet d'une qualification par le Conseil de l'ordre. Un médecin titulaire d'un DESC de type II qui s'ajoute à son DES, a donc 2 qualifications possibles. Lorsqu'il s'inscrit au tableau de l'ordre des médecins, il doit déclarer sa spécialité d'exercice. S'il choisit celle de son DESC, il ne peut pas exercer la spécialité de son DES. Toutefois, il peut, dans le futur, choisir le retour à la spécialité originelle portée par le DES. Ainsi, la création en 2004 du DESC de Gériatrie a marqué la naissance de la qualification de spécialiste en gériatrie (la gériatrie étant auparavant un mode d'exercice particulier de la médecine, concernant des généralistes et des spécialistes).Dans le cadre du modèle, une spécialité est un type de savoir-faire. La classe Specialite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Spécialité médicale ou odontologique, reconnue par une autorité d'enregistrement (Ordre ou SSA), soit sur la base d'un diplôme de spécialité (DES ou DESC de groupe II, CES jusqu'en 1991), soit via une commission de qualification.En France, l'exercice d'une spécialité est exclusif, c'est-à-dire qu'on ne peut exercer qu'une seule spécialité, celle qui fait l'objet d'une qualification par le Conseil de l'ordre. Un médecin titulaire d'un DESC de type II qui s'ajoute à son DES, a donc 2 qualifications possibles. Lorsqu'il s'inscrit au tableau de l'ordre des médecins, il doit déclarer sa spécialité d'exercice. S'il choisit celle de son DESC, il ne peut pas exercer la spécialité de son DES. Toutefois, il peut, dans le futur, choisir le retour à la spécialité originelle portée par le DES. Ainsi, la création en 2004 du DESC de Gériatrie a marqué la naissance de la qualification de spécialiste en gériatrie (la gériatrie étant auparavant un mode d'exercice particulier de la médecine, concernant des généralistes et des spécialistes).Dans le cadre du modèle, une spécialité est un type de savoir-faire. La classe Specialite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
+    <t>Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -273,7 +273,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
+    <t>Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
   </si>
   <si>
     <t>SavoirFaire.dateReconnaissance</t>
@@ -282,7 +282,7 @@
     <t>Specialite.dateAbandon</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
+    <t>Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
   </si>
   <si>
     <t>SavoirFaire.dateAbandon</t>
@@ -291,7 +291,7 @@
     <t>Specialite.specialite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Spécialité ordinale.</t>
+    <t>Spécialité ordinale.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/specialite-vs</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R04-TypeSavoirFaire?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire?vs</t>
   </si>
   <si>
     <t>SavoirFaire.typeSavoirFaire</t>
@@ -631,7 +631,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.91015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.68359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -286,6 +286,19 @@
   </si>
   <si>
     <t>SavoirFaire.dateAbandon</t>
+  </si>
+  <si>
+    <t>Specialite.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.exerciceProfessionnel</t>
   </si>
   <si>
     <t>Specialite.specialite</t>
@@ -597,7 +610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -606,8 +619,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.2265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -616,7 +629,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -637,7 +650,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="26.49609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="27.3984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1164,7 +1177,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -1179,13 +1192,13 @@
         <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1212,11 +1225,13 @@
         <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>70</v>
@@ -1234,10 +1249,10 @@
         <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
@@ -1246,6 +1261,104 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Spécialité médicale ou odontologique, reconnue par une autorité d'enregistrement (Ordre ou SSA), soit sur la base d'un diplôme de spécialité (DES ou DESC de groupe II, CES jusqu'en 1991), soit via une commission de qualification.En France, l'exercice d'une spécialité est exclusif, c'est-à-dire qu'on ne peut exercer qu'une seule spécialité, celle qui fait l'objet d'une qualification par le Conseil de l'ordre. Un médecin titulaire d'un DESC de type II qui s'ajoute à son DES, a donc 2 qualifications possibles. Lorsqu'il s'inscrit au tableau de l'ordre des médecins, il doit déclarer sa spécialité d'exercice. S'il choisit celle de son DESC, il ne peut pas exercer la spécialité de son DES. Toutefois, il peut, dans le futur, choisir le retour à la spécialité originelle portée par le DES. Ainsi, la création en 2004 du DESC de Gériatrie a marqué la naissance de la qualification de spécialiste en gériatrie (la gériatrie étant auparavant un mode d'exercice particulier de la médecine, concernant des généralistes et des spécialistes).Dans le cadre du modèle, une spécialité est un type de savoir-faire. La classe Specialite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Spécialité médicale ou odontologique, reconnue par une autorité d'enregistrement (Ordre ou SSA), soit sur la base d'un diplôme de spécialité (DES ou DESC de groupe II, CES jusqu'en 1991), soit via une commission de qualification.En France, l'exercice d'une spécialité est exclusif, c'est-à-dire qu'on ne peut exercer qu'une seule spécialité, celle qui fait l'objet d'une qualification par le Conseil de l'ordre. Un médecin titulaire d'un DESC de type II qui s'ajoute à son DES, a donc 2 qualifications possibles. Lorsqu'il s'inscrit au tableau de l'ordre des médecins, il doit déclarer sa spécialité d'exercice. S'il choisit celle de son DESC, il ne peut pas exercer la spécialité de son DES. Toutefois, il peut, dans le futur, choisir le retour à la spécialité originelle portée par le DES. Ainsi, la création en 2004 du DESC de Gériatrie a marqué la naissance de la qualification de spécialiste en gériatrie (la gériatrie étant auparavant un mode d'exercice particulier de la médecine, concernant des généralistes et des spécialistes).Dans le cadre du modèle, une spécialité est un type de savoir-faire. La classe Specialite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -541,39 +541,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -581,26 +583,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -658,112 +660,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -775,95 +777,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -875,23 +877,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -905,26 +907,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -934,34 +936,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -973,23 +975,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>84</v>
@@ -1003,65 +1005,65 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1073,23 +1075,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>84</v>
@@ -1103,65 +1105,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1173,7 +1175,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1183,13 +1185,13 @@
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>91</v>
@@ -1203,50 +1205,50 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>93</v>
@@ -1258,10 +1260,10 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1273,23 +1275,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1303,26 +1305,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1332,34 +1334,34 @@
         <v>96</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Specialite.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Specialite</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Specialite</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SavoirFaire</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -291,7 +291,7 @@
     <t>Specialite.exerciceProfessionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel)
 </t>
   </si>
   <si>
@@ -307,7 +307,7 @@
     <t>Spécialité ordinale.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/specialite-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/specialite-vs</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.30859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
